--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0677774079919672</v>
+        <v>0.06427130384423536</v>
       </c>
       <c r="H2" t="n">
-        <v>5.404492692720641</v>
+        <v>-0.04804879519399039</v>
       </c>
       <c r="I2" t="n">
-        <v>11.02723160516604</v>
+        <v>-23.60965181406512</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06195283039764813</v>
+        <v>0.06437240657180693</v>
       </c>
       <c r="H3" t="n">
-        <v>10.22254610277701</v>
+        <v>14.52730255528484</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02266679184692469</v>
+        <v>-0.01406049033992971</v>
       </c>
       <c r="H4" t="n">
-        <v>11.59526018735959</v>
+        <v>30.77608474799679</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01710326939837491</v>
+        <v>-0.02125627512239815</v>
       </c>
       <c r="H5" t="n">
-        <v>49.61748069246902</v>
+        <v>-85.94750855186763</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01821295484572356</v>
+        <v>-0.02470200997972323</v>
       </c>
       <c r="H6" t="n">
-        <v>62.7092599523758</v>
+        <v>-120.6805978042984</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00835782803013743</v>
+        <v>-0.0235241678783848</v>
       </c>
       <c r="H7" t="n">
-        <v>47.56740098070324</v>
+        <v>-315.3471812927345</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003341236771902969</v>
+        <v>-0.001765022885003737</v>
       </c>
       <c r="H8" t="n">
-        <v>-158.7298478449996</v>
+        <v>68.97570194638635</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0004352354197326441</v>
+        <v>-0.001192280637968696</v>
       </c>
       <c r="H9" t="n">
-        <v>-92.07675527072777</v>
+        <v>78.29512293277574</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06678942960003856</v>
+        <v>-0.0626825797351365</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978372020804018</v>
+        <v>0.5381870428465005</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06499152812984754</v>
+        <v>-0.06976873356215615</v>
       </c>
       <c r="H11" t="n">
-        <v>1.425574234497454</v>
+        <v>-8.88086599560223</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3875003844119195</v>
+        <v>-0.4076152984582946</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.800039336057147</v>
+        <v>-3.297462105419792</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.405638469211326</v>
+        <v>-0.4005406476591079</v>
       </c>
       <c r="H13" t="n">
-        <v>3.447744733269098</v>
+        <v>-2.147675379258007</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02154214477718199</v>
+        <v>-0.01890752586753613</v>
       </c>
       <c r="H14" t="n">
-        <v>162.8929950336518</v>
+        <v>-130.7410035261609</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0001327176492251437</v>
+        <v>-0.01562181837469445</v>
       </c>
       <c r="H15" t="n">
-        <v>-99.70714578949455</v>
+        <v>65.52896081650881</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1383215166486406</v>
+        <v>0.1305660323562913</v>
       </c>
       <c r="H16" t="n">
-        <v>1.149448879556831</v>
+        <v>-4.521852165802985</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1524367300724994</v>
+        <v>0.1425948927336241</v>
       </c>
       <c r="H17" t="n">
-        <v>9.29664601413417</v>
+        <v>2.24008024258985</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1243732954653691</v>
+        <v>0.1215320387719089</v>
       </c>
       <c r="H18" t="n">
-        <v>5.698300132719062</v>
+        <v>3.283666013587971</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1213787514597376</v>
+        <v>0.1167391776739392</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.665784458428496</v>
+        <v>-9.271609598883257</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0906453879830786</v>
+        <v>0.08459635290887559</v>
       </c>
       <c r="H20" t="n">
-        <v>2.153336560965989</v>
+        <v>-4.663657988381644</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09336086975235959</v>
+        <v>0.09238025256256767</v>
       </c>
       <c r="H21" t="n">
-        <v>7.199185525375235</v>
+        <v>6.073217394008084</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.099511555913259</v>
+        <v>-0.1033337862835137</v>
       </c>
       <c r="H22" t="n">
-        <v>6.448632994335576</v>
+        <v>-10.53731590326026</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1047129203040003</v>
+        <v>-0.09929440307253601</v>
       </c>
       <c r="H23" t="n">
-        <v>3.221353044346631</v>
+        <v>2.119980942921455</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1657418141448485</v>
+        <v>0.1725305686686509</v>
       </c>
       <c r="H24" t="n">
-        <v>2.887033343042238</v>
+        <v>7.101267491811485</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1609551006042833</v>
+        <v>0.1644516245163774</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.651156243927188</v>
+        <v>-3.601559884240534</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08490016296634607</v>
+        <v>0.08889646714925685</v>
       </c>
       <c r="H26" t="n">
-        <v>-6.346819434101985</v>
+        <v>-1.938505195803601</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08187393205057912</v>
+        <v>0.08466480802646421</v>
       </c>
       <c r="H27" t="n">
-        <v>-4.75538760661816</v>
+        <v>-1.508738839377272</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1416846651041069</v>
+        <v>-0.1448863674616052</v>
       </c>
       <c r="H28" t="n">
-        <v>2.938256263863136</v>
+        <v>-5.264391258886106</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1356210499922209</v>
+        <v>-0.1280315681962876</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.989071878987913</v>
+        <v>8.417894860547534</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04768440056687117</v>
+        <v>0.04647237872779753</v>
       </c>
       <c r="H30" t="n">
-        <v>-8.326158146568476</v>
+        <v>-10.65628491920817</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03776840336731604</v>
+        <v>0.04215354341563844</v>
       </c>
       <c r="H31" t="n">
-        <v>-13.80895044106344</v>
+        <v>-3.801648317328129</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1144919359740092</v>
+        <v>0.1159157970289918</v>
       </c>
       <c r="H32" t="n">
-        <v>5.324558385379307</v>
+        <v>6.634410782776333</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1176601356968806</v>
+        <v>0.1207633875778223</v>
       </c>
       <c r="H33" t="n">
-        <v>-5.185581016132896</v>
+        <v>-2.684878273361186</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0124584737102946</v>
+        <v>-0.01067907096475751</v>
       </c>
       <c r="H34" t="n">
-        <v>-20.22182744240004</v>
+        <v>31.61628093517611</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01136729417476462</v>
+        <v>-0.01370548079639382</v>
       </c>
       <c r="H35" t="n">
-        <v>-32.08401565266899</v>
+        <v>18.11409074756326</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03658293836959849</v>
+        <v>0.03295728617703193</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.5003715423833186</v>
+        <v>-10.36155443677626</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0335033656268371</v>
+        <v>0.03043665691321512</v>
       </c>
       <c r="H37" t="n">
-        <v>-6.115295448906523</v>
+        <v>-14.7089706255889</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1025908008134373</v>
+        <v>0.09776095486946634</v>
       </c>
       <c r="H38" t="n">
-        <v>2.28167554478213</v>
+        <v>-2.533617170116092</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1011392283043448</v>
+        <v>0.1038446446876256</v>
       </c>
       <c r="H39" t="n">
-        <v>3.839027475353838</v>
+        <v>6.616661938911427</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03132517512754873</v>
+        <v>0.03031990966901548</v>
       </c>
       <c r="H40" t="n">
-        <v>-7.012797690263627</v>
+        <v>-9.99687749786265</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03659320323985912</v>
+        <v>0.03456963301660645</v>
       </c>
       <c r="H41" t="n">
-        <v>13.57744045067374</v>
+        <v>7.296713261453721</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1197853461735259</v>
+        <v>0.1190174342368622</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.926413567524746</v>
+        <v>-1.561547931283802</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1191206931974799</v>
+        <v>0.126764968494164</v>
       </c>
       <c r="H43" t="n">
-        <v>-6.780704846985708</v>
+        <v>-0.7985875843607912</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03564706599566443</v>
+        <v>0.03438256321436341</v>
       </c>
       <c r="H44" t="n">
-        <v>-10.1333848795642</v>
+        <v>-13.3212092233607</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03334449524978357</v>
+        <v>0.03870755936427836</v>
       </c>
       <c r="H45" t="n">
-        <v>7.0024953616025</v>
+        <v>24.21256973029249</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06239223413227739</v>
+        <v>0.06057773736683784</v>
       </c>
       <c r="H46" t="n">
-        <v>10.1992357339207</v>
+        <v>6.994411294244696</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05651699039691189</v>
+        <v>0.05884383917028591</v>
       </c>
       <c r="H47" t="n">
-        <v>-3.67000070769923</v>
+        <v>0.2959808337499061</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04327831072801053</v>
+        <v>0.04146497924594267</v>
       </c>
       <c r="H48" t="n">
-        <v>-12.13832109408296</v>
+        <v>-15.81966506863696</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03988830837605761</v>
+        <v>0.03941549345120769</v>
       </c>
       <c r="H49" t="n">
-        <v>-12.46372542782349</v>
+        <v>-13.50133416001853</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0311525732287367</v>
+        <v>0.02942323670676247</v>
       </c>
       <c r="H50" t="n">
-        <v>17.61687024449554</v>
+        <v>11.08774188579917</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02639168657778597</v>
+        <v>0.02942323670676247</v>
       </c>
       <c r="H51" t="n">
-        <v>-5.797364035070816</v>
+        <v>5.023468213285062</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.085236471073165</v>
+        <v>-0.08420345248284296</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.9409794808396</v>
+        <v>3.12940023394788</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07770742279611415</v>
+        <v>-0.07873385448778604</v>
       </c>
       <c r="H53" t="n">
-        <v>-3.127521713351301</v>
+        <v>1.847940198659941</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05001418968553963</v>
+        <v>0.05276975029654993</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.02501112665707512</v>
+        <v>5.4831685151142</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04810495646123192</v>
+        <v>0.04874859276054085</v>
       </c>
       <c r="H55" t="n">
-        <v>-14.53334292369104</v>
+        <v>-13.389813297607</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05044203635533095</v>
+        <v>0.04511370100157242</v>
       </c>
       <c r="H56" t="n">
-        <v>2.043501201409599</v>
+        <v>-8.73564322572272</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04602162841703195</v>
+        <v>0.0392146256705742</v>
       </c>
       <c r="H57" t="n">
-        <v>21.16063406759264</v>
+        <v>3.239912936494189</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05411897249296996</v>
+        <v>0.0536721592442644</v>
       </c>
       <c r="H58" t="n">
-        <v>-6.066367419849017</v>
+        <v>-6.841895660731708</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05957557839570003</v>
+        <v>0.06062573782934053</v>
       </c>
       <c r="H59" t="n">
-        <v>4.49415960222463</v>
+        <v>6.336114484101742</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02780877587039129</v>
+        <v>0.02732655038723472</v>
       </c>
       <c r="H60" t="n">
-        <v>1.270125120386322</v>
+        <v>-0.4859764514020445</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03426943182952893</v>
+        <v>0.03175514860336491</v>
       </c>
       <c r="H61" t="n">
-        <v>28.36038674631214</v>
+        <v>18.94282858819619</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05888097966620917</v>
+        <v>0.06633489006864447</v>
       </c>
       <c r="H62" t="n">
-        <v>-5.710824215973231</v>
+        <v>6.225510270950167</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06293018441871644</v>
+        <v>0.06746974183425647</v>
       </c>
       <c r="H63" t="n">
-        <v>-1.490991132809207</v>
+        <v>5.615094854880258</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03339789240303505</v>
+        <v>0.03207501596671017</v>
       </c>
       <c r="H64" t="n">
-        <v>20.39763827273374</v>
+        <v>15.62873858474947</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03611397638496614</v>
+        <v>0.03191452030104739</v>
       </c>
       <c r="H65" t="n">
-        <v>1.938407399132805</v>
+        <v>-9.91533754919374</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08006485038433149</v>
+        <v>0.08480380953122589</v>
       </c>
       <c r="H66" t="n">
-        <v>3.065874984431197</v>
+        <v>9.166241982503157</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08113010392088539</v>
+        <v>0.07889599869896183</v>
       </c>
       <c r="H67" t="n">
-        <v>2.864519974582458</v>
+        <v>0.03190729298184846</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01468642559373523</v>
+        <v>-0.01822101453720723</v>
       </c>
       <c r="H68" t="n">
-        <v>-32.4628294266679</v>
+        <v>16.20862687354899</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01236943782317412</v>
+        <v>-0.0162609380114367</v>
       </c>
       <c r="H69" t="n">
-        <v>-35.37831839183493</v>
+        <v>15.04794527876746</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06509680507255494</v>
+        <v>0.06468597564025703</v>
       </c>
       <c r="H70" t="n">
-        <v>-9.570014842032304</v>
+        <v>-10.14072333415797</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0743105606988462</v>
+        <v>0.07458972733623058</v>
       </c>
       <c r="H71" t="n">
-        <v>-6.434664273135414</v>
+        <v>-6.08316214604926</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1450641849190974</v>
+        <v>-0.1430387745441365</v>
       </c>
       <c r="H72" t="n">
-        <v>-5.582670319624892</v>
+        <v>6.900940843926855</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1468874298682948</v>
+        <v>-0.1502113743438646</v>
       </c>
       <c r="H73" t="n">
-        <v>-4.042529830355512</v>
+        <v>1.87108940726394</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1556098146790969</v>
+        <v>0.1543301687381017</v>
       </c>
       <c r="H74" t="n">
-        <v>3.450770261089006</v>
+        <v>2.600050410734917</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1574639928783397</v>
+        <v>0.1561595334246783</v>
       </c>
       <c r="H75" t="n">
-        <v>4.663870468195396</v>
+        <v>3.796816529111589</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.008265235564008898</v>
+        <v>-0.01534922450543432</v>
       </c>
       <c r="H76" t="n">
-        <v>697.447304208951</v>
+        <v>-1380.925450794978</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.009008020857865701</v>
+        <v>-0.008570633565215304</v>
       </c>
       <c r="H77" t="n">
-        <v>307.9926941494521</v>
+        <v>-288.1824802599772</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09329434290751513</v>
+        <v>0.1000163909531586</v>
       </c>
       <c r="H78" t="n">
-        <v>3.708489744414667</v>
+        <v>11.18089835009147</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0991317816864167</v>
+        <v>0.09335006138216749</v>
       </c>
       <c r="H79" t="n">
-        <v>2.301739472450113</v>
+        <v>-3.664864115276225</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2232925461571669</v>
+        <v>-0.220584731623212</v>
       </c>
       <c r="H80" t="n">
-        <v>3.169187061749673</v>
+        <v>-1.918079360261572</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2060201762668062</v>
+        <v>-0.2101152744319672</v>
       </c>
       <c r="H81" t="n">
-        <v>-3.32860013630909</v>
+        <v>1.407046241060185</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1724020986434098</v>
+        <v>0.1708251674848299</v>
       </c>
       <c r="H82" t="n">
-        <v>2.854371194879952</v>
+        <v>1.913580659210046</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1763183203854122</v>
+        <v>0.1739798400300795</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1643980890670057</v>
+        <v>-1.164065548307729</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1112000001783394</v>
+        <v>0.1088098352863314</v>
       </c>
       <c r="H84" t="n">
-        <v>4.777459378251287</v>
+        <v>2.525342431506229</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1056555094741341</v>
+        <v>0.1165955093496981</v>
       </c>
       <c r="H85" t="n">
-        <v>1.048885887079145</v>
+        <v>11.51189727695051</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 30/S&P500_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06427130384423536</v>
+        <v>0.05931326035507824</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.04804879519399039</v>
+        <v>-7.758583532447306</v>
       </c>
       <c r="I2" t="n">
-        <v>-23.60965181406512</v>
+        <v>-11.68258649709265</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06437240657180693</v>
+        <v>0.06787059382195859</v>
       </c>
       <c r="H3" t="n">
-        <v>14.52730255528484</v>
+        <v>20.75105541663314</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01406049033992971</v>
+        <v>-0.01721485920497215</v>
       </c>
       <c r="H4" t="n">
-        <v>30.77608474799679</v>
+        <v>15.24620223976365</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02125627512239815</v>
+        <v>-0.01250155079535128</v>
       </c>
       <c r="H5" t="n">
-        <v>-85.94750855186763</v>
+        <v>-9.362162939859571</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02470200997972323</v>
+        <v>-0.01102466719485852</v>
       </c>
       <c r="H6" t="n">
-        <v>-120.6805978042984</v>
+        <v>1.508818547482636</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0235241678783848</v>
+        <v>-0.0181440260750904</v>
       </c>
       <c r="H7" t="n">
-        <v>-315.3471812927345</v>
+        <v>-220.3543745543151</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.001765022885003737</v>
+        <v>0.003502734656408314</v>
       </c>
       <c r="H8" t="n">
-        <v>68.97570194638635</v>
+        <v>161.5685410690318</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001192280637968696</v>
+        <v>0.002892286301756805</v>
       </c>
       <c r="H9" t="n">
-        <v>78.29512293277574</v>
+        <v>152.6526361526776</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0626825797351365</v>
+        <v>-0.07058793924194762</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5381870428465005</v>
+        <v>-12.00567110638592</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06976873356215615</v>
+        <v>-0.0717485056820435</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.88086599560223</v>
+        <v>-11.97049213444053</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4076152984582946</v>
+        <v>-0.4077367820469791</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.297462105419792</v>
+        <v>-3.328248355214717</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4005406476591079</v>
+        <v>-0.4003244468899067</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.147675379258007</v>
+        <v>-2.092538887822796</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01890752586753613</v>
+        <v>-0.01476982522068948</v>
       </c>
       <c r="H14" t="n">
-        <v>-130.7410035261609</v>
+        <v>-80.24591462700954</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01562181837469445</v>
+        <v>-0.02049596885707215</v>
       </c>
       <c r="H15" t="n">
-        <v>65.52896081650881</v>
+        <v>54.77368071823023</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1305660323562913</v>
+        <v>0.1357106653806431</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.521852165802985</v>
+        <v>-0.7597708373962435</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1425948927336241</v>
+        <v>0.1419156419427633</v>
       </c>
       <c r="H17" t="n">
-        <v>2.24008024258985</v>
+        <v>1.753059606498887</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1215320387719089</v>
+        <v>0.1183490751769825</v>
       </c>
       <c r="H18" t="n">
-        <v>3.283666013587971</v>
+        <v>0.5786332321600008</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1167391776739392</v>
+        <v>0.1276814192229102</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.271609598883257</v>
+        <v>-0.7674211773128655</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08459635290887559</v>
+        <v>0.08466092869781687</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.663657988381644</v>
+        <v>-4.590883935027265</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09238025256256767</v>
+        <v>0.08701871041812406</v>
       </c>
       <c r="H21" t="n">
-        <v>6.073217394008084</v>
+        <v>-0.08303364102259785</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1033337862835137</v>
+        <v>-0.09250295906055113</v>
       </c>
       <c r="H22" t="n">
-        <v>-10.53731590326026</v>
+        <v>1.048542055660304</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.09929440307253601</v>
+        <v>-0.1044973442376267</v>
       </c>
       <c r="H23" t="n">
-        <v>2.119980942921455</v>
+        <v>-3.008847718447412</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1725305686686509</v>
+        <v>0.1602526855368297</v>
       </c>
       <c r="H24" t="n">
-        <v>7.101267491811485</v>
+        <v>-0.5204360456052857</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1644516245163774</v>
+        <v>0.1729861740892776</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.601559884240534</v>
+        <v>1.401232081710936</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08889646714925685</v>
+        <v>0.08703935028236293</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.938505195803601</v>
+        <v>-3.987086673039802</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08466480802646421</v>
+        <v>0.08452875962460425</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.508738839377272</v>
+        <v>-1.667005053999603</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1448863674616052</v>
+        <v>-0.1401135276862405</v>
       </c>
       <c r="H28" t="n">
-        <v>-5.264391258886106</v>
+        <v>-1.796776725288932</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1280315681962876</v>
+        <v>-0.1418216398868193</v>
       </c>
       <c r="H29" t="n">
-        <v>8.417894860547534</v>
+        <v>-1.446264527913983</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04647237872779753</v>
+        <v>0.04980383740963305</v>
       </c>
       <c r="H30" t="n">
-        <v>-10.65628491920817</v>
+        <v>-4.251514958609911</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04215354341563844</v>
+        <v>0.03986722474128181</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.801648317328129</v>
+        <v>-9.019242618376236</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1159157970289918</v>
+        <v>0.110250098306307</v>
       </c>
       <c r="H32" t="n">
-        <v>6.634410782776333</v>
+        <v>1.422364966319449</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1207633875778223</v>
+        <v>0.1125325945037176</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.684878273361186</v>
+        <v>-9.317522868537912</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01067907096475751</v>
+        <v>-0.01720642034022659</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61628093517611</v>
+        <v>-10.18177691115705</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01370548079639382</v>
+        <v>-0.02032978017675743</v>
       </c>
       <c r="H35" t="n">
-        <v>18.11409074756326</v>
+        <v>-21.46400111070656</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03295728617703193</v>
+        <v>0.03102358377163858</v>
       </c>
       <c r="H36" t="n">
-        <v>-10.36155443677626</v>
+        <v>-15.62090973897721</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03043665691321512</v>
+        <v>0.03905474384722487</v>
       </c>
       <c r="H37" t="n">
-        <v>-14.7089706255889</v>
+        <v>9.441037305167402</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09776095486946634</v>
+        <v>0.09524104742977489</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.533617170116092</v>
+        <v>-5.045931657436529</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1038446446876256</v>
+        <v>0.1029960564212245</v>
       </c>
       <c r="H39" t="n">
-        <v>6.616661938911427</v>
+        <v>5.745421552887039</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03031990966901548</v>
+        <v>0.03181358538296872</v>
       </c>
       <c r="H40" t="n">
-        <v>-9.99687749786265</v>
+        <v>-5.562976482689675</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03456963301660645</v>
+        <v>0.03135829096378918</v>
       </c>
       <c r="H41" t="n">
-        <v>7.296713261453721</v>
+        <v>-2.670602482397569</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1190174342368622</v>
+        <v>0.1195023676515497</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.561547931283802</v>
+        <v>-1.160463039777635</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.126764968494164</v>
+        <v>0.1196015280213674</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.7985875843607912</v>
+        <v>-6.404421917759387</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03438256321436341</v>
+        <v>0.03709734698112794</v>
       </c>
       <c r="H44" t="n">
-        <v>-13.3212092233607</v>
+        <v>-6.477211797802377</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03870755936427836</v>
+        <v>0.03005657039346328</v>
       </c>
       <c r="H45" t="n">
-        <v>24.21256973029249</v>
+        <v>-3.548456498734716</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06057773736683784</v>
+        <v>0.05970021648889693</v>
       </c>
       <c r="H46" t="n">
-        <v>6.994411294244696</v>
+        <v>5.444504780484835</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05884383917028591</v>
+        <v>0.06451399839426483</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2959808337499061</v>
+        <v>9.960445098339745</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04146497924594267</v>
+        <v>0.04508408040356845</v>
       </c>
       <c r="H48" t="n">
-        <v>-15.81966506863696</v>
+        <v>-8.472328758822391</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03941549345120769</v>
+        <v>0.04992211562900956</v>
       </c>
       <c r="H49" t="n">
-        <v>-13.50133416001853</v>
+        <v>9.555812187511888</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02942323670676247</v>
+        <v>0.02768077958099759</v>
       </c>
       <c r="H50" t="n">
-        <v>11.08774188579917</v>
+        <v>4.509076548496136</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02942323670676247</v>
+        <v>0.02779305827376145</v>
       </c>
       <c r="H51" t="n">
-        <v>5.023468213285062</v>
+        <v>-0.7952999442275415</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08420345248284296</v>
+        <v>-0.08628913714614755</v>
       </c>
       <c r="H52" t="n">
-        <v>3.12940023394788</v>
+        <v>0.7299555758046753</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07873385448778604</v>
+        <v>-0.08183443460445265</v>
       </c>
       <c r="H53" t="n">
-        <v>1.847940198659941</v>
+        <v>-2.017338937103921</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05276975029654993</v>
+        <v>0.04280035091415067</v>
       </c>
       <c r="H54" t="n">
-        <v>5.4831685151142</v>
+        <v>-14.44498784602836</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04874859276054085</v>
+        <v>0.04763785654799152</v>
       </c>
       <c r="H55" t="n">
-        <v>-13.389813297607</v>
+        <v>-15.36322556036827</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04511370100157242</v>
+        <v>0.04197547155325531</v>
       </c>
       <c r="H56" t="n">
-        <v>-8.73564322572272</v>
+        <v>-15.08423546382736</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0392146256705742</v>
+        <v>0.04572643212521518</v>
       </c>
       <c r="H57" t="n">
-        <v>3.239912936494189</v>
+        <v>20.38347404259697</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0536721592442644</v>
+        <v>0.05952686678328963</v>
       </c>
       <c r="H58" t="n">
-        <v>-6.841895660731708</v>
+        <v>3.320047951676589</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06062573782934053</v>
+        <v>0.06487831750109789</v>
       </c>
       <c r="H59" t="n">
-        <v>6.336114484101742</v>
+        <v>13.79503894456258</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02732655038723472</v>
+        <v>0.0261358622762431</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.4859764514020445</v>
+        <v>-4.822058504832656</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03175514860336491</v>
+        <v>0.0280465791681736</v>
       </c>
       <c r="H61" t="n">
-        <v>18.94282858819619</v>
+        <v>5.05192402506522</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06633489006864447</v>
+        <v>0.05839014763650523</v>
       </c>
       <c r="H62" t="n">
-        <v>6.225510270950167</v>
+        <v>-6.496819078686856</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06746974183425647</v>
+        <v>0.06799718271996416</v>
       </c>
       <c r="H63" t="n">
-        <v>5.615094854880258</v>
+        <v>6.440734877502613</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03207501596671017</v>
+        <v>0.02745762061315563</v>
       </c>
       <c r="H64" t="n">
-        <v>15.62873858474947</v>
+        <v>-1.01672780668489</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03191452030104739</v>
+        <v>0.03573320595517088</v>
       </c>
       <c r="H65" t="n">
-        <v>-9.91533754919374</v>
+        <v>0.8636121236346772</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08480380953122589</v>
+        <v>0.08152095606484824</v>
       </c>
       <c r="H66" t="n">
-        <v>9.166241982503157</v>
+        <v>4.940290602668949</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07889599869896183</v>
+        <v>0.07517468216269517</v>
       </c>
       <c r="H67" t="n">
-        <v>0.03190729298184846</v>
+        <v>-4.686334403711003</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01822101453720723</v>
+        <v>-0.02984344717803936</v>
       </c>
       <c r="H68" t="n">
-        <v>16.20862687354899</v>
+        <v>-37.23842943917121</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0162609380114367</v>
+        <v>-0.01054679920028078</v>
       </c>
       <c r="H69" t="n">
-        <v>15.04794527876746</v>
+        <v>44.90033341459478</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06468597564025703</v>
+        <v>0.07493595258601712</v>
       </c>
       <c r="H70" t="n">
-        <v>-10.14072333415797</v>
+        <v>4.098151554425201</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07458972733623058</v>
+        <v>0.06735632600752715</v>
       </c>
       <c r="H71" t="n">
-        <v>-6.08316214604926</v>
+        <v>-15.19082621697576</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1430387745441365</v>
+        <v>-0.1499479677930243</v>
       </c>
       <c r="H72" t="n">
-        <v>6.900940843926855</v>
+        <v>2.403982637671619</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1502113743438646</v>
+        <v>-0.1561318177261071</v>
       </c>
       <c r="H73" t="n">
-        <v>1.87108940726394</v>
+        <v>-1.996571493005017</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1543301687381017</v>
+        <v>0.1450107745304179</v>
       </c>
       <c r="H74" t="n">
-        <v>2.600050410734917</v>
+        <v>-3.595564635397051</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1561595334246783</v>
+        <v>0.1617382953170958</v>
       </c>
       <c r="H75" t="n">
-        <v>3.796816529111589</v>
+        <v>7.504932914373197</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01534922450543432</v>
+        <v>-0.01067521366602649</v>
       </c>
       <c r="H76" t="n">
-        <v>-1380.925450794978</v>
+        <v>-929.9670582768416</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.008570633565215304</v>
+        <v>-0.003360713474036557</v>
       </c>
       <c r="H77" t="n">
-        <v>-288.1824802599772</v>
+        <v>-52.2139619980198</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1000163909531586</v>
+        <v>0.0942621982319341</v>
       </c>
       <c r="H78" t="n">
-        <v>11.18089835009147</v>
+        <v>4.784383639568476</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09335006138216749</v>
+        <v>0.09253109635554063</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.664864115276225</v>
+        <v>-4.510017358421345</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.220584731623212</v>
+        <v>-0.2150662454157058</v>
       </c>
       <c r="H80" t="n">
-        <v>-1.918079360261572</v>
+        <v>0.6316597404747222</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2101152744319672</v>
+        <v>-0.2048417367402791</v>
       </c>
       <c r="H81" t="n">
-        <v>1.407046241060185</v>
+        <v>3.881562475961414</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1708251674848299</v>
+        <v>0.1686638702000806</v>
       </c>
       <c r="H82" t="n">
-        <v>1.913580659210046</v>
+        <v>0.6241597360466682</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1739798400300795</v>
+        <v>0.183976288312983</v>
       </c>
       <c r="H83" t="n">
-        <v>-1.164065548307729</v>
+        <v>4.514801078239142</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1088098352863314</v>
+        <v>0.111158268028414</v>
       </c>
       <c r="H84" t="n">
-        <v>2.525342431506229</v>
+        <v>4.738137537994417</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1165955093496981</v>
+        <v>0.1171861838117136</v>
       </c>
       <c r="H85" t="n">
-        <v>11.51189727695051</v>
+        <v>12.07681808993687</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>